--- a/biology/Médecine/1631_en_santé_et_médecine/1631_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1631_en_santé_et_médecine/1631_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1631_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1631_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1631 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1631_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1631_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 mai, parution du premier numéro de La Gazette fondée par Théophraste Renaudot, médecin philanthrope[1].
-3 septembre : accord passé entre les apothicaires de Paris et la Faculté de médecine pour renforcer le contrôle médical sur les examens de maîtrise des apothicaires[2].
-Création, en France, du poste d'apothicaire de l'Amiral pour servir auprès du seigneur et grand-maître de la navigation[3].
-Fin de l'épidémie de peste en Italie[4]. La grande peste de Milan aurait tué un million de personnes.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 mai, parution du premier numéro de La Gazette fondée par Théophraste Renaudot, médecin philanthrope.
+3 septembre : accord passé entre les apothicaires de Paris et la Faculté de médecine pour renforcer le contrôle médical sur les examens de maîtrise des apothicaires.
+Création, en France, du poste d'apothicaire de l'Amiral pour servir auprès du seigneur et grand-maître de la navigation.
+Fin de l'épidémie de peste en Italie. La grande peste de Milan aurait tué un million de personnes.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1631_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1631_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,31 +560,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Divers
-Antonio Colmenero de Ledesma (es), médecin et chirurgien espagnol, donne une première édition, en espagnol, de son traité sur le chocolat (Curioso tratado de la naturaleza y calidad del chocolate[5].
-Jacques Cousinot (1585-1646), médecin de Louis XIII, fait paraître son Discours sur les eaux minérales de Forges[6],[7].
-Fortunio Liceti (1577-1657), médecin et philosophe italien, publie son traité De feriis altricis animae nemeseticae disputationes[8].
-Le chimiste et médecin allemand Adrian von Mynsicht (1603-1638) publie son Thesaurus et armamentarium medico-chymicum, où il décrit sa découverte de l'année 1630 précédente, de  la préparation du tartrate émétique[9],[10].
-Petrus Paschalis, Praxis medicinae, Leyde[11].
-Jacques Primerose (en) (c.1600 – 1659), médecin anglais, docteur des universités de Montpellier et d'Oxford, publie un ouvrage sur l'école de médecine de Montpellier (Academia Monspeliensis descripta[12]).
-Daniel Sennert joint au troisième volume de sa Practica medicina un « Traité de l'arthrite » (De arthritide tractatus[13]) qu'il fait suivre du texte grec et de la traduction latine par Erasmus Schmidt de la Podagra tragice (« Podagre sur le mode tragique ») de Lucien de Samosate[14].
-1629[15] et 1631[16] : Robert Fludd (1574-1637), médecin et astrologue anglais, fait paraître son traité de médecine universelle (Medicina catholica).
-Sur la peste
-Bartolomeo Ambrosini (1588-1657), médecin et naturaliste italien[17], publie à Bologne un traité de peste qu'il intitule Modo e facile preserva e cura di peste[18].
-Baldus Balduus, Praelectio de contagione pestifera, Rome[19].
-Cesare Crivellati[20] (1553-1640) publie, à Viterbe, son traité de peste (De peste[19]).
-Vincenzo Alsario Della Croce (c. 1576 –  p. 1632), Consilium prophylacticum a lue pestifera, Rome[21].
-Impression, à Tours, chez Jean Oudot, d'un Brief traité contenant le moyen de se préserver de la contagion, d'un certain De Vallées dont on ignore tout par ailleurs[22].
-Franciscus Fabranus, « physicus ac medicus », fait paraître un traité « sur les causes de la peste de 1630 en Italie » (De origine et causa pestilentis morbi Italiam a. d. 1630 infestantis[23]'[24],[25]).
-Giovanni Francesco Fiochetto (it) (1564-1642), archiatre de la maison de Savoie[26], fait paraître à Turin son Trattato della peste di Torino [dell'anno 1630[27]].
-Nicolas du François, médecin ordinaire d'Henri Ier de Savoie[28] puis du roi Louis XIII[29], publie à Paris un Traité de la peste, de ses remèdes et préservatifs[30].
-René Gendry, maître chirurgien juré à Angers[31], fait paraître son Traité de la peste[32].
-Thomas Grossi, professeur de philosophie et de médecine à Ferrare[33], fait paraître à Venise un essai sur l'épidémie « qui se répand en Italie et plus spécialement en Italie du Nord » (Quaestio an morbi qui in Italia et praesertim in Gallia Cysalpina hoc anno evagantur sub nomine pestis, an vero inter febres pestilentiales connumerari debeant[34].).
-Giovanni Imperiali († 1653), philosophe et médecin de Vicence, publie un essai « sur la peste de 1630 » (Pestis anni 1630 descriptio historico-medica[35]).
-Andrea Mariani (1593-1661), professeur de philosophie et de médecine italien, précepteur du fils de Charles Ier, duc de Mantoue[36], publie son traité « Sur la peste de 1630 à Bologne » (De peste anni M.DC.XXX Bononiae[37]).
-Domenico Ponticelli, sous le pseudonyme de Cellino Pinto, publie le premier volume (1re et 2e partie[38]) de son Compendioso trattato della peste e contagio[39].
-Francesco Rossi, médecin génois, auteur en 1622 de réflexions en latin sur l'histoire de la médecine, publie un traité de peste en italien (Trattato della peste[19],[40]).
-Maurizio Tirelli publie un ouvrage sur la peste de 1630 à Badia Polesine (Della peste dell’abbadia del Polesene[41],[42]).</t>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antonio Colmenero de Ledesma (es), médecin et chirurgien espagnol, donne une première édition, en espagnol, de son traité sur le chocolat (Curioso tratado de la naturaleza y calidad del chocolate.
+Jacques Cousinot (1585-1646), médecin de Louis XIII, fait paraître son Discours sur les eaux minérales de Forges,.
+Fortunio Liceti (1577-1657), médecin et philosophe italien, publie son traité De feriis altricis animae nemeseticae disputationes.
+Le chimiste et médecin allemand Adrian von Mynsicht (1603-1638) publie son Thesaurus et armamentarium medico-chymicum, où il décrit sa découverte de l'année 1630 précédente, de  la préparation du tartrate émétique,.
+Petrus Paschalis, Praxis medicinae, Leyde.
+Jacques Primerose (en) (c.1600 – 1659), médecin anglais, docteur des universités de Montpellier et d'Oxford, publie un ouvrage sur l'école de médecine de Montpellier (Academia Monspeliensis descripta).
+Daniel Sennert joint au troisième volume de sa Practica medicina un « Traité de l'arthrite » (De arthritide tractatus) qu'il fait suivre du texte grec et de la traduction latine par Erasmus Schmidt de la Podagra tragice (« Podagre sur le mode tragique ») de Lucien de Samosate.
+1629 et 1631 : Robert Fludd (1574-1637), médecin et astrologue anglais, fait paraître son traité de médecine universelle (Medicina catholica).</t>
         </is>
       </c>
     </row>
@@ -580,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1631_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1631_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,12 +598,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naissance</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Richard Lower (mort en 1691), médecin et physiologiste anglais[43].</t>
+          <t>Sur la peste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bartolomeo Ambrosini (1588-1657), médecin et naturaliste italien, publie à Bologne un traité de peste qu'il intitule Modo e facile preserva e cura di peste.
+Baldus Balduus, Praelectio de contagione pestifera, Rome.
+Cesare Crivellati (1553-1640) publie, à Viterbe, son traité de peste (De peste).
+Vincenzo Alsario Della Croce (c. 1576 –  p. 1632), Consilium prophylacticum a lue pestifera, Rome.
+Impression, à Tours, chez Jean Oudot, d'un Brief traité contenant le moyen de se préserver de la contagion, d'un certain De Vallées dont on ignore tout par ailleurs.
+Franciscus Fabranus, « physicus ac medicus », fait paraître un traité « sur les causes de la peste de 1630 en Italie » (De origine et causa pestilentis morbi Italiam a. d. 1630 infestantis',).
+Giovanni Francesco Fiochetto (it) (1564-1642), archiatre de la maison de Savoie, fait paraître à Turin son Trattato della peste di Torino [dell'anno 1630].
+Nicolas du François, médecin ordinaire d'Henri Ier de Savoie puis du roi Louis XIII, publie à Paris un Traité de la peste, de ses remèdes et préservatifs.
+René Gendry, maître chirurgien juré à Angers, fait paraître son Traité de la peste.
+Thomas Grossi, professeur de philosophie et de médecine à Ferrare, fait paraître à Venise un essai sur l'épidémie « qui se répand en Italie et plus spécialement en Italie du Nord » (Quaestio an morbi qui in Italia et praesertim in Gallia Cysalpina hoc anno evagantur sub nomine pestis, an vero inter febres pestilentiales connumerari debeant.).
+Giovanni Imperiali († 1653), philosophe et médecin de Vicence, publie un essai « sur la peste de 1630 » (Pestis anni 1630 descriptio historico-medica).
+Andrea Mariani (1593-1661), professeur de philosophie et de médecine italien, précepteur du fils de Charles Ier, duc de Mantoue, publie son traité « Sur la peste de 1630 à Bologne » (De peste anni M.DC.XXX Bononiae).
+Domenico Ponticelli, sous le pseudonyme de Cellino Pinto, publie le premier volume (1re et 2e partie) de son Compendioso trattato della peste e contagio.
+Francesco Rossi, médecin génois, auteur en 1622 de réflexions en latin sur l'histoire de la médecine, publie un traité de peste en italien (Trattato della peste,).
+Maurizio Tirelli publie un ouvrage sur la peste de 1630 à Badia Polesine (Della peste dell’abbadia del Polesene,).</t>
         </is>
       </c>
     </row>
@@ -610,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1631_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1631_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,16 +648,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Richard Lower (mort en 1691), médecin et physiologiste anglais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1631_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1631_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15 mars : Thomas Fienus (né en 1567), professeur de médecine à Louvain[44],[45].
-21 juin : Claude Charles (né en 1576), professeur de médecine à Paris, médecin de Richelieu, doyen de la Faculté de 1610 à 1612, gendre de Simon Piètre, lecteur royal en médecine démis de sa charge en sa faveur en 1607[46].
-3 août : Jean Prévost (né en 1585), médecin et botaniste suisse, mort de la peste à Padoue[47].
-Jacques de Bondt (né en 1592), médecin flamand, auteur du De medicina indorum, un des premiers traités sur la médecine des Indes[48].
-Giovanni Colle (né en 1558), médecin italien, un des premiers à avoir expérimenté l'injection intraveineuse[49].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15 mars : Thomas Fienus (né en 1567), professeur de médecine à Louvain,.
+21 juin : Claude Charles (né en 1576), professeur de médecine à Paris, médecin de Richelieu, doyen de la Faculté de 1610 à 1612, gendre de Simon Piètre, lecteur royal en médecine démis de sa charge en sa faveur en 1607.
+3 août : Jean Prévost (né en 1585), médecin et botaniste suisse, mort de la peste à Padoue.
+Jacques de Bondt (né en 1592), médecin flamand, auteur du De medicina indorum, un des premiers traités sur la médecine des Indes.
+Giovanni Colle (né en 1558), médecin italien, un des premiers à avoir expérimenté l'injection intraveineuse.</t>
         </is>
       </c>
     </row>
